--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Segger_George/Alexander_Segger_George.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Segger_George/Alexander_Segger_George.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Segger George (né le 4 avril 1939) est un botaniste d'Australie occidentale. Ses travaux sur les Proteaceae, en particulier les genres Banksia et Dryandra, font autorité.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à East Fremantle (Australie occidentale) le 4 avril 1939, il intègre l'Herbier d'Australie occidentale à Perth  comme assistant de laboratoire à l'âge de vingt ans. En 1963, il obtient le diplôme de Bachelor of Arts à l'Université d'Australie-Occidentale et l'année suivante ajoute une spécialisation (major) en botanique. Poursuivant comme botaniste à l'herbier d'Australie occidentale, en 1968 il est détaché comme Australian Botanical Liaison Officer aux jardins botaniques royaux de Kew à Londres.
 George se spécialise d'abord dans les orchidées, mais son intérêt se porte progressivement vers les genres Banksia et Dryandra de la famille des Proteaceae. Il contribue à la rédaction de l'ouvrage de Celia Rosser en trois volumes, The Banksias, publié entre 1981 et 2001, qui contient des peintures de Rosser sur chaque espèce de  Banksia. En 1981, il publie sa monographie monumentale, The Genus Banksia L.f. (Proteaceae), premier traitement systématique de la taxonomie des Banksia depuis la  Flora Australiensis de George Bentham parue dans les années 1870. Trois ans plus tard, il publie le populaire The Banksia Book, et l'année suivante An Introduction to the Proteaceae of Western Australia. En 1999, sa taxonomie des genres Banksia et Dryandra est publiée dans le cadre de la série de monographies Flora of Australia.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La liste suivante des livres et articles publiés ou coécrits par Alex George est incomplète. Elle n'inclut pas les nombreux volumes de la Flora of Australia dont il est rédacteur en chef.
 Orchids of Western Australia (1969)
@@ -589,7 +605,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Norman Hall, Botanists of the Eucalypts, CSIRO, Melbourne, 1978 (ISBN 0-643-00271-5)
 (en) Rosser, Celia E. et Alex S. George, The Banksias (3 volumes), Londres, Academic Press en association avec l'université Monash, 1981-2001, « Alex George »</t>
